--- a/Tareas DWES/Proyecto_Junio/excel/Profesores.xlsx
+++ b/Tareas DWES/Proyecto_Junio/excel/Profesores.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Correo</t>
   </si>
   <si>
-    <t xml:space="preserve">Domingo</t>
+    <t xml:space="preserve">Fermin</t>
   </si>
   <si>
     <t xml:space="preserve">domingomr5@gmail.com</t>
@@ -163,7 +163,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -196,9 +196,6 @@
       <c r="A4" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="mperezg30@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
